--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.27436066666667</v>
+        <v>16.15448333333333</v>
       </c>
       <c r="H2">
-        <v>33.823082</v>
+        <v>48.46344999999999</v>
       </c>
       <c r="I2">
-        <v>0.6286406327466463</v>
+        <v>0.700293647220962</v>
       </c>
       <c r="J2">
-        <v>0.6286406327466463</v>
+        <v>0.700293647220962</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.59985066666667</v>
+        <v>39.02618766666667</v>
       </c>
       <c r="N2">
-        <v>73.79955200000001</v>
+        <v>117.078563</v>
       </c>
       <c r="O2">
-        <v>0.4261128628549157</v>
+        <v>0.4958819606525626</v>
       </c>
       <c r="P2">
-        <v>0.4261128628549157</v>
+        <v>0.4958819606525626</v>
       </c>
       <c r="Q2">
-        <v>277.3475887621404</v>
+        <v>630.4478982247055</v>
       </c>
       <c r="R2">
-        <v>2496.128298859264</v>
+        <v>5674.031084022349</v>
       </c>
       <c r="S2">
-        <v>0.2678718597265991</v>
+        <v>0.3472629868164646</v>
       </c>
       <c r="T2">
-        <v>0.2678718597265991</v>
+        <v>0.3472629868164646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.27436066666667</v>
+        <v>16.15448333333333</v>
       </c>
       <c r="H3">
-        <v>33.823082</v>
+        <v>48.46344999999999</v>
       </c>
       <c r="I3">
-        <v>0.6286406327466463</v>
+        <v>0.700293647220962</v>
       </c>
       <c r="J3">
-        <v>0.6286406327466463</v>
+        <v>0.700293647220962</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.732698000000001</v>
       </c>
       <c r="O3">
-        <v>0.04464799572729766</v>
+        <v>0.03275155884322009</v>
       </c>
       <c r="P3">
-        <v>0.04464799572729766</v>
+        <v>0.03275155884322008</v>
       </c>
       <c r="Q3">
-        <v>29.06040872613734</v>
+        <v>41.63924698756667</v>
       </c>
       <c r="R3">
-        <v>261.543678535236</v>
+        <v>374.7532228881</v>
       </c>
       <c r="S3">
-        <v>0.02806754428487796</v>
+        <v>0.02293570859449055</v>
       </c>
       <c r="T3">
-        <v>0.02806754428487796</v>
+        <v>0.02293570859449054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.27436066666667</v>
+        <v>16.15448333333333</v>
       </c>
       <c r="H4">
-        <v>33.823082</v>
+        <v>48.46344999999999</v>
       </c>
       <c r="I4">
-        <v>0.6286406327466463</v>
+        <v>0.700293647220962</v>
       </c>
       <c r="J4">
-        <v>0.6286406327466463</v>
+        <v>0.700293647220962</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.09598833333334</v>
+        <v>35.04673133333333</v>
       </c>
       <c r="N4">
-        <v>90.28796500000001</v>
+        <v>105.140194</v>
       </c>
       <c r="O4">
-        <v>0.5213156747549692</v>
+        <v>0.4453174364986936</v>
       </c>
       <c r="P4">
-        <v>0.5213156747549692</v>
+        <v>0.4453174364986936</v>
       </c>
       <c r="Q4">
-        <v>339.3130270897923</v>
+        <v>566.1618372121444</v>
       </c>
       <c r="R4">
-        <v>3053.817243808131</v>
+        <v>5095.4565349093</v>
       </c>
       <c r="S4">
-        <v>0.3277202156387087</v>
+        <v>0.3118529717767593</v>
       </c>
       <c r="T4">
-        <v>0.3277202156387087</v>
+        <v>0.3118529717767593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.27436066666667</v>
+        <v>16.15448333333333</v>
       </c>
       <c r="H5">
-        <v>33.823082</v>
+        <v>48.46344999999999</v>
       </c>
       <c r="I5">
-        <v>0.6286406327466463</v>
+        <v>0.700293647220962</v>
       </c>
       <c r="J5">
-        <v>0.6286406327466463</v>
+        <v>0.700293647220962</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4574283333333333</v>
+        <v>2.050074333333333</v>
       </c>
       <c r="N5">
-        <v>1.372285</v>
+        <v>6.150223</v>
       </c>
       <c r="O5">
-        <v>0.007923466662817383</v>
+        <v>0.02604904400552376</v>
       </c>
       <c r="P5">
-        <v>0.007923466662817385</v>
+        <v>0.02604904400552376</v>
       </c>
       <c r="Q5">
-        <v>5.157212009152222</v>
+        <v>33.11789164992778</v>
       </c>
       <c r="R5">
-        <v>46.41490808237</v>
+        <v>298.06102484935</v>
       </c>
       <c r="S5">
-        <v>0.004981013096460478</v>
+        <v>0.01824198003324757</v>
       </c>
       <c r="T5">
-        <v>0.004981013096460479</v>
+        <v>0.01824198003324757</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.186071999999999</v>
       </c>
       <c r="I6">
-        <v>0.1335613605242407</v>
+        <v>0.1038382651270686</v>
       </c>
       <c r="J6">
-        <v>0.1335613605242408</v>
+        <v>0.1038382651270686</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.59985066666667</v>
+        <v>39.02618766666667</v>
       </c>
       <c r="N6">
-        <v>73.79955200000001</v>
+        <v>117.078563</v>
       </c>
       <c r="O6">
-        <v>0.4261128628549157</v>
+        <v>0.4958819606525626</v>
       </c>
       <c r="P6">
-        <v>0.4261128628549157</v>
+        <v>0.4958819606525626</v>
       </c>
       <c r="Q6">
-        <v>58.92543269330489</v>
+        <v>93.48166481939288</v>
       </c>
       <c r="R6">
-        <v>530.328894239744</v>
+        <v>841.3349833745359</v>
       </c>
       <c r="S6">
-        <v>0.05691221369978174</v>
+        <v>0.05149152250197139</v>
       </c>
       <c r="T6">
-        <v>0.05691221369978176</v>
+        <v>0.05149152250197139</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.186071999999999</v>
       </c>
       <c r="I7">
-        <v>0.1335613605242407</v>
+        <v>0.1038382651270686</v>
       </c>
       <c r="J7">
-        <v>0.1335613605242408</v>
+        <v>0.1038382651270686</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>7.732698000000001</v>
       </c>
       <c r="O7">
-        <v>0.04464799572729766</v>
+        <v>0.03275155884322009</v>
       </c>
       <c r="P7">
-        <v>0.04464799572729766</v>
+        <v>0.03275155884322008</v>
       </c>
       <c r="Q7">
         <v>6.174191620250667</v>
@@ -883,10 +883,10 @@
         <v>55.56772458225601</v>
       </c>
       <c r="S7">
-        <v>0.005963247054018362</v>
+        <v>0.003400865050487076</v>
       </c>
       <c r="T7">
-        <v>0.005963247054018364</v>
+        <v>0.003400865050487075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.186071999999999</v>
       </c>
       <c r="I8">
-        <v>0.1335613605242407</v>
+        <v>0.1038382651270686</v>
       </c>
       <c r="J8">
-        <v>0.1335613605242408</v>
+        <v>0.1038382651270686</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.09598833333334</v>
+        <v>35.04673133333333</v>
       </c>
       <c r="N8">
-        <v>90.28796500000001</v>
+        <v>105.140194</v>
       </c>
       <c r="O8">
-        <v>0.5213156747549692</v>
+        <v>0.4453174364986936</v>
       </c>
       <c r="P8">
-        <v>0.5213156747549692</v>
+        <v>0.4453174364986936</v>
       </c>
       <c r="Q8">
-        <v>72.09064635816445</v>
+        <v>83.94944490866311</v>
       </c>
       <c r="R8">
-        <v>648.8158172234801</v>
+        <v>755.5450041779679</v>
       </c>
       <c r="S8">
-        <v>0.06962763078288627</v>
+        <v>0.04624099003685788</v>
       </c>
       <c r="T8">
-        <v>0.06962763078288628</v>
+        <v>0.04624099003685788</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.186071999999999</v>
       </c>
       <c r="I9">
-        <v>0.1335613605242407</v>
+        <v>0.1038382651270686</v>
       </c>
       <c r="J9">
-        <v>0.1335613605242408</v>
+        <v>0.1038382651270686</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4574283333333333</v>
+        <v>2.050074333333333</v>
       </c>
       <c r="N9">
-        <v>1.372285</v>
+        <v>6.150223</v>
       </c>
       <c r="O9">
-        <v>0.007923466662817383</v>
+        <v>0.02604904400552376</v>
       </c>
       <c r="P9">
-        <v>0.007923466662817385</v>
+        <v>0.02604904400552376</v>
       </c>
       <c r="Q9">
-        <v>1.095704312724444</v>
+        <v>4.910660588228444</v>
       </c>
       <c r="R9">
-        <v>9.86133881452</v>
+        <v>44.195945294056</v>
       </c>
       <c r="S9">
-        <v>0.001058268987554355</v>
+        <v>0.002704887537752253</v>
       </c>
       <c r="T9">
-        <v>0.001058268987554356</v>
+        <v>0.002704887537752253</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.752319</v>
+        <v>3.534157666666667</v>
       </c>
       <c r="H10">
-        <v>8.256957</v>
+        <v>10.602473</v>
       </c>
       <c r="I10">
-        <v>0.1534649820806351</v>
+        <v>0.1532050336229009</v>
       </c>
       <c r="J10">
-        <v>0.1534649820806351</v>
+        <v>0.1532050336229009</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.59985066666667</v>
+        <v>39.02618766666667</v>
       </c>
       <c r="N10">
-        <v>73.79955200000001</v>
+        <v>117.078563</v>
       </c>
       <c r="O10">
-        <v>0.4261128628549157</v>
+        <v>0.4958819606525626</v>
       </c>
       <c r="P10">
-        <v>0.4261128628549157</v>
+        <v>0.4958819606525626</v>
       </c>
       <c r="Q10">
-        <v>67.70663638702933</v>
+        <v>137.9247003429221</v>
       </c>
       <c r="R10">
-        <v>609.359727483264</v>
+        <v>1241.322303086299</v>
       </c>
       <c r="S10">
-        <v>0.06539340286235774</v>
+        <v>0.07597161245476586</v>
       </c>
       <c r="T10">
-        <v>0.06539340286235776</v>
+        <v>0.07597161245476586</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.752319</v>
+        <v>3.534157666666667</v>
       </c>
       <c r="H11">
-        <v>8.256957</v>
+        <v>10.602473</v>
       </c>
       <c r="I11">
-        <v>0.1534649820806351</v>
+        <v>0.1532050336229009</v>
       </c>
       <c r="J11">
-        <v>0.1534649820806351</v>
+        <v>0.1532050336229009</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>7.732698000000001</v>
       </c>
       <c r="O11">
-        <v>0.04464799572729766</v>
+        <v>0.03275155884322009</v>
       </c>
       <c r="P11">
-        <v>0.04464799572729766</v>
+        <v>0.03275155884322008</v>
       </c>
       <c r="Q11">
-        <v>7.094283875554001</v>
+        <v>9.109524640239336</v>
       </c>
       <c r="R11">
-        <v>63.848554879986</v>
+        <v>81.98572176215401</v>
       </c>
       <c r="S11">
-        <v>0.006851903864226006</v>
+        <v>0.005017703673777951</v>
       </c>
       <c r="T11">
-        <v>0.006851903864226007</v>
+        <v>0.00501770367377795</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.752319</v>
+        <v>3.534157666666667</v>
       </c>
       <c r="H12">
-        <v>8.256957</v>
+        <v>10.602473</v>
       </c>
       <c r="I12">
-        <v>0.1534649820806351</v>
+        <v>0.1532050336229009</v>
       </c>
       <c r="J12">
-        <v>0.1534649820806351</v>
+        <v>0.1532050336229009</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.09598833333334</v>
+        <v>35.04673133333333</v>
       </c>
       <c r="N12">
-        <v>90.28796500000001</v>
+        <v>105.140194</v>
       </c>
       <c r="O12">
-        <v>0.5213156747549692</v>
+        <v>0.4453174364986936</v>
       </c>
       <c r="P12">
-        <v>0.5213156747549692</v>
+        <v>0.4453174364986936</v>
       </c>
       <c r="Q12">
-        <v>82.83376051361168</v>
+        <v>123.8606742333069</v>
       </c>
       <c r="R12">
-        <v>745.5038446225051</v>
+        <v>1114.746068099762</v>
       </c>
       <c r="S12">
-        <v>0.08000370068462552</v>
+        <v>0.06822487283164638</v>
       </c>
       <c r="T12">
-        <v>0.08000370068462553</v>
+        <v>0.06822487283164638</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.752319</v>
+        <v>3.534157666666667</v>
       </c>
       <c r="H13">
-        <v>8.256957</v>
+        <v>10.602473</v>
       </c>
       <c r="I13">
-        <v>0.1534649820806351</v>
+        <v>0.1532050336229009</v>
       </c>
       <c r="J13">
-        <v>0.1534649820806351</v>
+        <v>0.1532050336229009</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4574283333333333</v>
+        <v>2.050074333333333</v>
       </c>
       <c r="N13">
-        <v>1.372285</v>
+        <v>6.150223</v>
       </c>
       <c r="O13">
-        <v>0.007923466662817383</v>
+        <v>0.02604904400552376</v>
       </c>
       <c r="P13">
-        <v>0.007923466662817385</v>
+        <v>0.02604904400552376</v>
       </c>
       <c r="Q13">
-        <v>1.258988692971667</v>
+        <v>7.245285922386556</v>
       </c>
       <c r="R13">
-        <v>11.330898236745</v>
+        <v>65.207573301479</v>
       </c>
       <c r="S13">
-        <v>0.001215974669425779</v>
+        <v>0.003990844662710691</v>
       </c>
       <c r="T13">
-        <v>0.001215974669425779</v>
+        <v>0.003990844662710691</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.512471333333333</v>
+        <v>0.984158</v>
       </c>
       <c r="H14">
-        <v>4.537414</v>
+        <v>2.952474</v>
       </c>
       <c r="I14">
-        <v>0.08433302464847796</v>
+        <v>0.04266305402906856</v>
       </c>
       <c r="J14">
-        <v>0.08433302464847797</v>
+        <v>0.04266305402906857</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.59985066666667</v>
+        <v>39.02618766666667</v>
       </c>
       <c r="N14">
-        <v>73.79955200000001</v>
+        <v>117.078563</v>
       </c>
       <c r="O14">
-        <v>0.4261128628549157</v>
+        <v>0.4958819606525626</v>
       </c>
       <c r="P14">
-        <v>0.4261128628549157</v>
+        <v>0.4958819606525626</v>
       </c>
       <c r="Q14">
-        <v>37.20656893761422</v>
+        <v>38.40793480165133</v>
       </c>
       <c r="R14">
-        <v>334.859120438528</v>
+        <v>345.671413214862</v>
       </c>
       <c r="S14">
-        <v>0.03593538656617712</v>
+        <v>0.02115583887936073</v>
       </c>
       <c r="T14">
-        <v>0.03593538656617712</v>
+        <v>0.02115583887936073</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.512471333333333</v>
+        <v>0.984158</v>
       </c>
       <c r="H15">
-        <v>4.537414</v>
+        <v>2.952474</v>
       </c>
       <c r="I15">
-        <v>0.08433302464847796</v>
+        <v>0.04266305402906856</v>
       </c>
       <c r="J15">
-        <v>0.08433302464847797</v>
+        <v>0.04266305402906857</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>7.732698000000001</v>
       </c>
       <c r="O15">
-        <v>0.04464799572729766</v>
+        <v>0.03275155884322009</v>
       </c>
       <c r="P15">
-        <v>0.04464799572729766</v>
+        <v>0.03275155884322008</v>
       </c>
       <c r="Q15">
-        <v>3.898494684774667</v>
+        <v>2.536732199428001</v>
       </c>
       <c r="R15">
-        <v>35.086452162972</v>
+        <v>22.830589794852</v>
       </c>
       <c r="S15">
-        <v>0.003765300524175332</v>
+        <v>0.001397281524464517</v>
       </c>
       <c r="T15">
-        <v>0.003765300524175333</v>
+        <v>0.001397281524464517</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.512471333333333</v>
+        <v>0.984158</v>
       </c>
       <c r="H16">
-        <v>4.537414</v>
+        <v>2.952474</v>
       </c>
       <c r="I16">
-        <v>0.08433302464847796</v>
+        <v>0.04266305402906856</v>
       </c>
       <c r="J16">
-        <v>0.08433302464847797</v>
+        <v>0.04266305402906857</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.09598833333334</v>
+        <v>35.04673133333333</v>
       </c>
       <c r="N16">
-        <v>90.28796500000001</v>
+        <v>105.140194</v>
       </c>
       <c r="O16">
-        <v>0.5213156747549692</v>
+        <v>0.4453174364986936</v>
       </c>
       <c r="P16">
-        <v>0.5213156747549692</v>
+        <v>0.4453174364986936</v>
       </c>
       <c r="Q16">
-        <v>45.51931960250111</v>
+        <v>34.49152101555067</v>
       </c>
       <c r="R16">
-        <v>409.6738764225101</v>
+        <v>310.423689139956</v>
       </c>
       <c r="S16">
-        <v>0.04396412764874873</v>
+        <v>0.01899860185343007</v>
       </c>
       <c r="T16">
-        <v>0.04396412764874874</v>
+        <v>0.01899860185343007</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.512471333333333</v>
+        <v>0.984158</v>
       </c>
       <c r="H17">
-        <v>4.537414</v>
+        <v>2.952474</v>
       </c>
       <c r="I17">
-        <v>0.08433302464847796</v>
+        <v>0.04266305402906856</v>
       </c>
       <c r="J17">
-        <v>0.08433302464847797</v>
+        <v>0.04266305402906857</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4574283333333333</v>
+        <v>2.050074333333333</v>
       </c>
       <c r="N17">
-        <v>1.372285</v>
+        <v>6.150223</v>
       </c>
       <c r="O17">
-        <v>0.007923466662817383</v>
+        <v>0.02604904400552376</v>
       </c>
       <c r="P17">
-        <v>0.007923466662817385</v>
+        <v>0.02604904400552376</v>
       </c>
       <c r="Q17">
-        <v>0.6918472412211111</v>
+        <v>2.017597055744667</v>
       </c>
       <c r="R17">
-        <v>6.22662517099</v>
+        <v>18.158373501702</v>
       </c>
       <c r="S17">
-        <v>0.0006682099093767718</v>
+        <v>0.001111331771813245</v>
       </c>
       <c r="T17">
-        <v>0.000668209909376772</v>
+        <v>0.001111331771813245</v>
       </c>
     </row>
   </sheetData>
